--- a/Data Perusahaan.xlsx
+++ b/Data Perusahaan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>12ewdas@mail.com</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>08214356</t>
+  </si>
+  <si>
+    <t>PT Indo Power Persero</t>
+  </si>
+  <si>
+    <t>Jl. Hj. Selong, Duri Kosambi 11750., Jakarta Barat, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>08324156478</t>
+  </si>
+  <si>
+    <t>PT Jaya Abadi</t>
+  </si>
+  <si>
+    <t>Jl. Lingkar Luar Barat, Duri Kosambi 11750. , Jakarta Barat , DKI Jakarta</t>
+  </si>
+  <si>
+    <t>jayaabadi@gmail.com</t>
+  </si>
+  <si>
+    <t>0821315474829</t>
+  </si>
+  <si>
+    <t>PT Jaya Abadi Sejahtera</t>
+  </si>
+  <si>
+    <t>jayaabadisejahtera@gmail.com</t>
+  </si>
+  <si>
+    <t>08732290586942</t>
   </si>
 </sst>
 </file>
@@ -458,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:E3"/>
@@ -467,9 +503,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="87.121582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -641,6 +677,159 @@
       </c>
       <c r="E12" s="1">
         <v>21435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data Perusahaan.xlsx
+++ b/Data Perusahaan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -86,12 +86,6 @@
     <t>0823523667</t>
   </si>
   <si>
-    <t>asfaw</t>
-  </si>
-  <si>
-    <t>12ewdas@mail.com</t>
-  </si>
-  <si>
     <t>jakarta</t>
   </si>
   <si>
@@ -126,6 +120,42 @@
   </si>
   <si>
     <t>08732290586942</t>
+  </si>
+  <si>
+    <t>PT.DAQ</t>
+  </si>
+  <si>
+    <t>Jl. Lingkar Luar Barat, Duri Kosambi. , Jakarta Barat , DKI Jakarta</t>
+  </si>
+  <si>
+    <t>daq@gmail.com</t>
+  </si>
+  <si>
+    <t>082141586932</t>
+  </si>
+  <si>
+    <t>PT. GWS</t>
+  </si>
+  <si>
+    <t>gws@gmail.com</t>
+  </si>
+  <si>
+    <t>085329596912</t>
+  </si>
+  <si>
+    <t>0832742571</t>
+  </si>
+  <si>
+    <t>082415749355</t>
+  </si>
+  <si>
+    <t>08241415346</t>
+  </si>
+  <si>
+    <t>PT PLN</t>
+  </si>
+  <si>
+    <t>pln123@pln.co.id</t>
   </si>
 </sst>
 </file>
@@ -494,7 +524,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:E3"/>
@@ -667,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1">
-        <v>21435</v>
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -687,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -704,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -721,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
@@ -735,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -752,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -769,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -786,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -803,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -820,16 +850,118 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1123124</v>
       </c>
     </row>
   </sheetData>

--- a/Data Perusahaan.xlsx
+++ b/Data Perusahaan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>pln123@pln.co.id</t>
+  </si>
+  <si>
+    <t>Manado, Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>082415346</t>
+  </si>
+  <si>
+    <t>ksadn@itlpln.ac.id</t>
+  </si>
+  <si>
+    <t>0886765898665</t>
+  </si>
+  <si>
+    <t>12ewdas@mail.com</t>
+  </si>
+  <si>
+    <t>0824125423</t>
   </si>
 </sst>
 </file>
@@ -524,7 +542,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:E3"/>
@@ -964,6 +982,91 @@
         <v>1123124</v>
       </c>
     </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/Data Perusahaan.xlsx
+++ b/Data Perusahaan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -174,6 +174,42 @@
   </si>
   <si>
     <t>0824125423</t>
+  </si>
+  <si>
+    <t>PT. Angkasa Pura</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>angkasa@pura.com</t>
+  </si>
+  <si>
+    <t>081351812275</t>
+  </si>
+  <si>
+    <t>PT. Abadi Jaya</t>
+  </si>
+  <si>
+    <t>Jl. Imam Bonjol, Serang. Banten</t>
+  </si>
+  <si>
+    <t>abadi@jaya.com</t>
+  </si>
+  <si>
+    <t>0821412562567</t>
+  </si>
+  <si>
+    <t>PT. 5 Macan</t>
+  </si>
+  <si>
+    <t>Jl. Hj Selong Duri Kosambi Jakarta Barat</t>
+  </si>
+  <si>
+    <t>5macan@gmail.com</t>
+  </si>
+  <si>
+    <t>0872412584924</t>
   </si>
 </sst>
 </file>
@@ -542,7 +578,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:E3"/>
@@ -1067,6 +1103,57 @@
         <v>52</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
